--- a/biology/Médecine/Syndrome_lié_à_la_culture/Syndrome_lié_à_la_culture.xlsx
+++ b/biology/Médecine/Syndrome_lié_à_la_culture/Syndrome_lié_à_la_culture.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Syndrome_li%C3%A9_%C3%A0_la_culture</t>
+          <t>Syndrome_lié_à_la_culture</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'expression syndrome lié à la culture, désigne en psychiatrie culturelle, et en anthropologie de la santé, un tableau clinique combinant des troubles somatiques et psychiques, dotés d'une signification particulière et qui sont typiques d'une aire culturelle ou d'un groupe ethnique donné.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Syndrome_li%C3%A9_%C3%A0_la_culture</t>
+          <t>Syndrome_lié_à_la_culture</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Exemples de syndromes liés à la culture</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Amok (Malaisie, Indonésie)
 Grisi siknis (Les Miskito, Amérique centrale)
